--- a/accommodation/src/test/resources/empData.xlsx
+++ b/accommodation/src/test/resources/empData.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{08D24959-7006-4F5F-AEE8-1A7C92003A76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="16410" windowHeight="11655" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="credentials" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:V38"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,94 +22,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">FirstName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abokhalifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abokhalifa@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibrahim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ismail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gamal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eshak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test131</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Abokhalifa</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>abokhalifa@gmail.com</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Test124</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Test125</t>
+  </si>
+  <si>
+    <t>Ismail</t>
+  </si>
+  <si>
+    <t>Test126</t>
+  </si>
+  <si>
+    <t>Hamza</t>
+  </si>
+  <si>
+    <t>Test127</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Test128</t>
+  </si>
+  <si>
+    <t>Gamal</t>
+  </si>
+  <si>
+    <t>Test129</t>
+  </si>
+  <si>
+    <t>Samy</t>
+  </si>
+  <si>
+    <t>Test130</t>
+  </si>
+  <si>
+    <t>Eshak</t>
+  </si>
+  <si>
+    <t>Test131</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>remember_me</t>
+  </si>
+  <si>
+    <t>asmaa.khaled@almtar.com</t>
+  </si>
+  <si>
+    <t>123456#alpha</t>
+  </si>
+  <si>
+    <t>ahmed.abokhalifa@almtar.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -115,22 +132,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -150,7 +159,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -158,57 +167,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -267,30 +249,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col min="1" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -310,11 +600,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -327,17 +617,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -345,17 +635,17 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -363,17 +653,17 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -381,17 +671,17 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -399,17 +689,17 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -417,17 +707,17 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -435,17 +725,17 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -453,11 +743,11 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -473,22 +763,79 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="abokhalifa@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="abokhalifa@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId3" display="abokhalifa@gmail.com"/>
-    <hyperlink ref="E5" r:id="rId4" display="abokhalifa@gmail.com"/>
-    <hyperlink ref="E6" r:id="rId5" display="abokhalifa@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId6" display="abokhalifa@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId7" display="abokhalifa@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId8" display="abokhalifa@gmail.com"/>
-    <hyperlink ref="E10" r:id="rId9" display="abokhalifa@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD734E8-6FBE-487C-BFCE-636B50E1EDE4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
+        <v>12345678</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1D6828A0-56C0-4D92-AA87-FD7D2DF8070E}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{9E146CCD-BAD8-4AC0-A42E-3AD6727F6DFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>